--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelangeloinze/Desktop/Energy_Policy/TIMES/TIMES_TUe/Model_MSc_SELECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4231A-9DC9-014F-949B-03311572524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{13D91245-91CE-4E87-951E-9ABEA10B1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD770827-29AB-40B2-BFE0-E7FECA6538BE}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19900" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -53,7 +53,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -65,98 +65,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={66C0D662-EC88-214E-B2C2-E4712A87BEEC}</author>
-    <author>tc={7C5B24F7-0A6A-3F46-BD4A-EC3FE8B0D06D}</author>
-    <author>tc={5359B1D1-7DAE-9441-AA21-6C3A09CAF277}</author>
-    <author>tc={5844B1CE-A481-9040-8DD6-C0B2C317641C}</author>
-  </authors>
-  <commentList>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{66C0D662-EC88-214E-B2C2-E4712A87BEEC}">
-      <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Milestone year</t>
-      </text>
-    </comment>
-    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{7C5B24F7-0A6A-3F46-BD4A-EC3FE8B0D06D}">
-      <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Milestone year</t>
-      </text>
-    </comment>
-    <comment ref="H24" authorId="2" shapeId="0" xr:uid="{5359B1D1-7DAE-9441-AA21-6C3A09CAF277}">
-      <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Milestone year</t>
-      </text>
-    </comment>
-    <comment ref="H28" authorId="3" shapeId="0" xr:uid="{5844B1CE-A481-9040-8DD6-C0B2C317641C}">
-      <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Milestone year</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={729A8E2A-1863-B34E-A4AF-B502FF8AB974}</author>
-  </authors>
-  <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{729A8E2A-1863-B34E-A4AF-B502FF8AB974}">
-      <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-To put constraints (f.ex. act_bound puts a boundary on whatever)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={A39D6268-22A5-9C47-B0BE-BB6A8F5879AB}</author>
-    <author>tc={98CFC3F4-D568-1240-B087-5EC1DD343467}</author>
-  </authors>
-  <commentList>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{A39D6268-22A5-9C47-B0BE-BB6A8F5879AB}">
-      <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Year fraction attribute</t>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="1" shapeId="0" xr:uid="{98CFC3F4-D568-1240-B087-5EC1DD343467}">
-      <text>
-        <t>[Commento in thread]
-La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
-Commento:
-Fraction of the year</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="400">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -1356,9 +1266,6 @@
   </si>
   <si>
     <t>4W7SU8</t>
-  </si>
-  <si>
-    <t>hours</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1293,7 @@
     <numFmt numFmtId="181" formatCode="yyyy"/>
     <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="89">
+  <fonts count="88">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1409,6 +1316,12 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1935,18 +1848,6 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="52">
     <fill>
@@ -2219,13 +2120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,173 +2420,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="725">
+  <cellStyleXfs count="726">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2704,309 +2533,381 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="5" fillId="20" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="6" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="54" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3014,368 +2915,368 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="4" fillId="24" borderId="10" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="51" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="5" fillId="24" borderId="10" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="51" fillId="0" borderId="11">
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="11">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="40" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="64" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="65" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="64" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="64" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="64" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="68" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="69" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="70" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="10"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="63" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="66" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="67" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="65" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="68" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="69" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="10"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3384,24 +3285,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3412,189 +3304,195 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="72" fillId="0" borderId="9" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="71" fillId="0" borderId="9" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="72" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="456" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="456"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="456"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="81" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="20" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" xfId="722" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="721" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="722" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="21" xfId="722" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="23" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="23" xfId="722" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="480" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="722" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="722"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="477"/>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="22" xfId="723" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="20" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" xfId="723" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="722" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="723" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="21" xfId="723" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="23" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="23" xfId="723" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="723" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="723"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="477"/>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="22" xfId="724" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="19" xfId="723" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" xfId="722" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" xfId="456" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="10" xfId="724" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="19" xfId="724" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" xfId="723" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" xfId="456" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="10" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="10" xfId="724" applyBorder="1"/>
-    <xf numFmtId="2" fontId="75" fillId="0" borderId="10" xfId="724" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="10" xfId="725" applyBorder="1"/>
+    <xf numFmtId="2" fontId="76" fillId="0" borderId="10" xfId="725" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="10" xfId="724" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="10" xfId="725" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="725">
+  <cellStyles count="726">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Akzent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Akzent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -4051,7 +3949,7 @@
     <cellStyle name="no dec" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
     <cellStyle name="Normal - Style1" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
     <cellStyle name="Normal 10" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
-    <cellStyle name="Normal 10 2" xfId="722" xr:uid="{EB0C2ED4-4687-4FED-8497-A80B55395A75}"/>
+    <cellStyle name="Normal 10 2" xfId="723" xr:uid="{EB0C2ED4-4687-4FED-8497-A80B55395A75}"/>
     <cellStyle name="Normal 14" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
     <cellStyle name="Normal 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
     <cellStyle name="Normal 20" xfId="459" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
@@ -4067,11 +3965,11 @@
     <cellStyle name="Normal 6 2" xfId="469" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
     <cellStyle name="Normal 7" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
     <cellStyle name="Normal 7 2" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
-    <cellStyle name="Normal 8" xfId="724" xr:uid="{2EFFE159-9DDE-43DB-9776-B60A290959BA}"/>
+    <cellStyle name="Normal 8" xfId="725" xr:uid="{2EFFE159-9DDE-43DB-9776-B60A290959BA}"/>
     <cellStyle name="Normal GHG Textfiels Bold" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
-    <cellStyle name="Normal_Constants 2" xfId="721" xr:uid="{C6AA90A5-1043-4AB8-B229-DB93742915B6}"/>
+    <cellStyle name="Normal_Constants 2" xfId="722" xr:uid="{C6AA90A5-1043-4AB8-B229-DB93742915B6}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
     <cellStyle name="Normalny 10 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
@@ -4086,7 +3984,7 @@
     <cellStyle name="Normalny 15" xfId="485" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
     <cellStyle name="Normalny 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
     <cellStyle name="Normalny 2 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
-    <cellStyle name="Normalny 2 3" xfId="723" xr:uid="{1B5E8EBA-37B9-4148-9C3E-C42248866516}"/>
+    <cellStyle name="Normalny 2 3" xfId="724" xr:uid="{1B5E8EBA-37B9-4148-9C3E-C42248866516}"/>
     <cellStyle name="Normalny 3" xfId="488" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
     <cellStyle name="Normalny 4" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
     <cellStyle name="Normalny 5" xfId="490" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
@@ -4292,34 +4190,35 @@
     <cellStyle name="Überschrift 5" xfId="690" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
     <cellStyle name="Unprot" xfId="691" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
     <cellStyle name="Unprot$" xfId="692" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
-    <cellStyle name="Unprotect" xfId="693" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
-    <cellStyle name="Uwaga 10" xfId="694" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
-    <cellStyle name="Uwaga 2" xfId="695" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
-    <cellStyle name="Uwaga 3" xfId="696" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
-    <cellStyle name="Uwaga 4" xfId="697" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
-    <cellStyle name="Uwaga 5" xfId="698" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
-    <cellStyle name="Uwaga 6" xfId="699" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
-    <cellStyle name="Uwaga 7" xfId="700" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
-    <cellStyle name="Uwaga 8" xfId="701" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
-    <cellStyle name="Uwaga 9" xfId="702" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
-    <cellStyle name="Währung 2" xfId="704" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
-    <cellStyle name="Währung 2 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
-    <cellStyle name="Warnender Text 2" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
-    <cellStyle name="Warning Text" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
-    <cellStyle name="X10_Figs 21 dec" xfId="708" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
-    <cellStyle name="Złe 10" xfId="710" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
-    <cellStyle name="Złe 2" xfId="711" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
-    <cellStyle name="Złe 3" xfId="712" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
-    <cellStyle name="Złe 4" xfId="713" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
-    <cellStyle name="Złe 5" xfId="714" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
-    <cellStyle name="Złe 6" xfId="715" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
-    <cellStyle name="Złe 7" xfId="716" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
-    <cellStyle name="Złe 8" xfId="717" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
-    <cellStyle name="Złe 9" xfId="718" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
-    <cellStyle name="Обычный_2++_CRFReport-template" xfId="719" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
-    <cellStyle name="已访问的超链接" xfId="720" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="693" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Unprotect" xfId="694" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Uwaga 10" xfId="695" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Uwaga 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Uwaga 3" xfId="697" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Uwaga 4" xfId="698" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Uwaga 5" xfId="699" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Uwaga 6" xfId="700" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Uwaga 7" xfId="701" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Uwaga 8" xfId="702" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Uwaga 9" xfId="703" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="704" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Währung 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Währung 2 2" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Warnender Text 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Warning Text" xfId="708" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="X10_Figs 21 dec" xfId="709" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="710" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Złe 10" xfId="711" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Złe 2" xfId="712" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Złe 3" xfId="713" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Złe 4" xfId="714" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Złe 5" xfId="715" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Złe 6" xfId="716" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Złe 7" xfId="717" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Złe 8" xfId="718" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Złe 9" xfId="719" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Обычный_2++_CRFReport-template" xfId="720" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="已访问的超链接" xfId="721" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4467,12 +4366,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Inzerilli, Michelangelo" id="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" userId="S::michelangelo.inzerilli@alumni.esade.edu::a9cb653c-8a27-4d43-8946-b43deead3efa" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4760,67 +4653,31 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H17" dT="2025-05-03T15:58:06.45" personId="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" id="{66C0D662-EC88-214E-B2C2-E4712A87BEEC}">
-    <text>Milestone year</text>
-  </threadedComment>
-  <threadedComment ref="H19" dT="2025-05-03T15:57:51.69" personId="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" id="{7C5B24F7-0A6A-3F46-BD4A-EC3FE8B0D06D}">
-    <text>Milestone year</text>
-  </threadedComment>
-  <threadedComment ref="H24" dT="2025-05-03T15:57:23.45" personId="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" id="{5359B1D1-7DAE-9441-AA21-6C3A09CAF277}">
-    <text>Milestone year</text>
-  </threadedComment>
-  <threadedComment ref="H28" dT="2025-05-03T15:58:16.06" personId="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" id="{5844B1CE-A481-9040-8DD6-C0B2C317641C}">
-    <text>Milestone year</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C7" dT="2025-05-03T16:03:06.70" personId="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" id="{729A8E2A-1863-B34E-A4AF-B502FF8AB974}">
-    <text>To put constraints (f.ex. act_bound puts a boundary on whatever)</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D10" dT="2025-05-03T15:50:29.86" personId="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" id="{A39D6268-22A5-9C47-B0BE-BB6A8F5879AB}">
-    <text>Year fraction attribute</text>
-  </threadedComment>
-  <threadedComment ref="G10" dT="2025-04-28T09:23:29.28" personId="{7DCD3642-B8C2-8649-AD2D-A799B0F300E8}" id="{98CFC3F4-D568-1240-B087-5EC1DD343467}">
-    <text>Fraction of the year</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G63"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16">
+    <row r="2" spans="2:7" ht="15">
       <c r="B2" s="22"/>
     </row>
     <row r="3" spans="2:7" ht="12.75" customHeight="1">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="18">
+    <row r="4" spans="2:7" ht="17.399999999999999">
       <c r="B4" s="5" t="s">
         <v>138</v>
       </c>
@@ -4878,8 +4735,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="E9" s="24" t="s">
         <v>79</v>
       </c>
@@ -5271,7 +5128,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5280,27 +5137,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A13" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16">
+    <row r="2" spans="2:7" ht="15">
       <c r="B2" s="22"/>
     </row>
-    <row r="4" spans="2:7" ht="16">
+    <row r="4" spans="2:7" ht="15">
       <c r="B4" s="16" t="s">
         <v>139</v>
       </c>
@@ -5315,7 +5172,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16">
+    <row r="13" spans="2:7" ht="15">
       <c r="B13" s="16" t="s">
         <v>141</v>
       </c>
@@ -5341,111 +5198,177 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" customHeight="1">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1">
       <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="H17" s="58">
+      <c r="I17" s="56">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1">
+    <row r="18" spans="2:9" ht="15.75" customHeight="1">
       <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="H18" s="55">
+      <c r="I18" s="54">
         <v>2024</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.75" customHeight="1">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1">
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="H19" s="57">
+      <c r="I19" s="55">
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" customHeight="1">
+    <row r="20" spans="2:9" ht="15.75" customHeight="1">
       <c r="B20" s="17">
         <v>5</v>
       </c>
-      <c r="H20" s="55">
+      <c r="I20" s="54">
         <v>2026</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75" customHeight="1">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="H21" s="55">
+      <c r="I21" s="54">
         <v>2027</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" customHeight="1">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
       <c r="B22" s="17">
         <v>5</v>
       </c>
-      <c r="H22" s="53">
+      <c r="I22" s="52">
         <v>2028</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1">
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="H23" s="53">
+      <c r="I23" s="52">
         <v>2029</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.75" customHeight="1">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="H24" s="56">
+      <c r="I24" s="53">
         <v>2030</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1">
-      <c r="H25" s="53">
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+      <c r="I25" s="52">
         <v>2031</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="H26" s="53">
+    <row r="26" spans="2:9">
+      <c r="I26" s="52">
         <v>2032</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="14" thickBot="1">
+    <row r="27" spans="2:9" ht="13.8" thickBot="1">
       <c r="B27" s="13"/>
-      <c r="H27">
+      <c r="I27">
         <v>2033</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="H28" s="2">
+    <row r="28" spans="2:9">
+      <c r="I28">
         <v>2034</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="B29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="H29">
+      <c r="I29">
         <v>2035</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:9">
       <c r="B30" s="11"/>
-      <c r="H30">
+      <c r="I30">
         <v>2036</v>
       </c>
     </row>
+    <row r="31" spans="2:9">
+      <c r="I31">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="I32">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9">
+      <c r="I43">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44">
+        <v>2050</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5457,15 +5380,15 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.399999999999999">
       <c r="B2" s="5" t="s">
         <v>149</v>
       </c>
@@ -5578,7 +5501,7 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="11" spans="2:9" ht="18">
+    <row r="11" spans="2:9" ht="17.399999999999999">
       <c r="B11" s="5" t="s">
         <v>151</v>
       </c>
@@ -5808,20 +5731,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="59.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
@@ -5998,240 +5921,240 @@
     </row>
     <row r="20" spans="2:15" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:15">
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="F24" s="48"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="F27" s="48"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="47" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15">
-      <c r="F30" s="46" t="s">
+    <row r="30" spans="2:15" ht="14.4">
+      <c r="F30" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="45">
         <v>2015</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="45">
         <v>2020</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="45">
         <v>2025</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="45">
         <v>2030</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="45">
         <v>2035</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="45">
         <v>2040</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="45">
         <v>2045</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="45">
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="15">
-      <c r="F31" s="49" t="s">
+    <row r="31" spans="2:15" ht="14.4">
+      <c r="F31" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51">
+      <c r="H31" s="49"/>
+      <c r="I31" s="50">
         <v>50</v>
       </c>
-      <c r="J31" s="50"/>
-      <c r="K31" s="51">
+      <c r="J31" s="49"/>
+      <c r="K31" s="50">
         <v>100</v>
       </c>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-    </row>
-    <row r="32" spans="2:15" ht="15">
-      <c r="F32" s="49" t="s">
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+    </row>
+    <row r="32" spans="2:15" ht="14.4">
+      <c r="F32" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51">
+      <c r="H32" s="49"/>
+      <c r="I32" s="50">
         <v>50</v>
       </c>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51">
+      <c r="J32" s="49"/>
+      <c r="K32" s="50">
         <v>100</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-    </row>
-    <row r="33" spans="6:15" ht="15">
-      <c r="F33" s="49" t="s">
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+    </row>
+    <row r="33" spans="6:15" ht="14.4">
+      <c r="F33" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51">
+      <c r="H33" s="49"/>
+      <c r="I33" s="50">
         <v>50</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="50">
         <v>75</v>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="50">
         <v>100</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-    </row>
-    <row r="34" spans="6:15" ht="15">
-      <c r="F34" s="49" t="s">
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+    </row>
+    <row r="34" spans="6:15" ht="14.4">
+      <c r="F34" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="50">
         <v>0</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="50">
         <v>50</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="50">
         <v>75</v>
       </c>
-      <c r="K34" s="51">
+      <c r="K34" s="50">
         <v>100</v>
       </c>
-      <c r="L34" s="51">
+      <c r="L34" s="50">
         <v>0</v>
       </c>
-      <c r="M34" s="51">
+      <c r="M34" s="50">
         <v>0</v>
       </c>
-      <c r="N34" s="51">
+      <c r="N34" s="50">
         <v>0</v>
       </c>
-      <c r="O34" s="51">
+      <c r="O34" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" ht="15">
-      <c r="F35" s="49" t="s">
+    <row r="35" spans="6:15" ht="14.4">
+      <c r="F35" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="50">
         <v>50</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="50">
         <v>50</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="50">
         <v>75</v>
       </c>
-      <c r="K35" s="51">
+      <c r="K35" s="50">
         <v>100</v>
       </c>
-      <c r="L35" s="51">
+      <c r="L35" s="50">
         <v>100</v>
       </c>
-      <c r="M35" s="51">
+      <c r="M35" s="50">
         <v>100</v>
       </c>
-      <c r="N35" s="51">
+      <c r="N35" s="50">
         <v>100</v>
       </c>
-      <c r="O35" s="51">
+      <c r="O35" s="50">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="6:15" ht="15">
-      <c r="F36" s="49" t="s">
+    <row r="36" spans="6:15" ht="14.4">
+      <c r="F36" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="50">
         <v>50</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="50">
         <v>50</v>
       </c>
-      <c r="J36" s="51">
+      <c r="J36" s="50">
         <v>75</v>
       </c>
-      <c r="K36" s="51">
+      <c r="K36" s="50">
         <v>100</v>
       </c>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-    </row>
-    <row r="37" spans="6:15" ht="15">
-      <c r="F37" s="49" t="s">
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+    </row>
+    <row r="37" spans="6:15" ht="14.4">
+      <c r="F37" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51">
+      <c r="H37" s="49"/>
+      <c r="I37" s="50">
         <v>50</v>
       </c>
-      <c r="J37" s="51">
+      <c r="J37" s="50">
         <v>75</v>
       </c>
-      <c r="K37" s="51">
+      <c r="K37" s="50">
         <v>100</v>
       </c>
-      <c r="L37" s="51">
+      <c r="L37" s="50">
         <v>100</v>
       </c>
-      <c r="M37" s="51">
+      <c r="M37" s="50">
         <v>100</v>
       </c>
-      <c r="N37" s="51">
+      <c r="N37" s="50">
         <v>100</v>
       </c>
-      <c r="O37" s="51">
+      <c r="O37" s="50">
         <v>100</v>
       </c>
     </row>
@@ -6240,44 +6163,43 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:K233"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:J233"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="7"/>
+    <col min="7" max="7" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18">
+    <row r="3" spans="2:10" ht="17.399999999999999">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1">
+    <row r="5" spans="2:10" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="27" t="s">
         <v>28</v>
       </c>
@@ -6300,7 +6222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1">
+    <row r="7" spans="2:10" ht="15.75" customHeight="1">
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28" t="s">
@@ -6313,7 +6235,7 @@
       </c>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1">
+    <row r="8" spans="2:10" ht="15.75" customHeight="1">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
@@ -6326,7 +6248,7 @@
       </c>
       <c r="H8" s="29"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1">
+    <row r="9" spans="2:10" ht="15.75" customHeight="1">
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
@@ -6341,53 +6263,47 @@
         <v>52.142857142857146</v>
       </c>
       <c r="H9" s="35"/>
-      <c r="K9" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B10" s="52" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B10" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C10"/>
       <c r="D10" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32">
-        <f>K10/8760</f>
+        <f>J10/8760</f>
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H10" s="32"/>
-      <c r="K10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B11" s="52" t="s">
+      <c r="J10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B11" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C11"/>
       <c r="D11" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32">
-        <f t="shared" ref="G11:G74" si="0">K11/8760</f>
+        <f t="shared" ref="G11:G74" si="0">J11/8760</f>
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H11" s="30"/>
-      <c r="K11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B12" s="52" t="s">
+      <c r="J11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B12" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C12"/>
       <c r="D12" s="31" t="s">
         <v>34</v>
       </c>
@@ -6398,15 +6314,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="K12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B13" s="52" t="s">
+      <c r="J12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B13" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C13"/>
       <c r="D13" s="31" t="s">
         <v>34</v>
       </c>
@@ -6417,15 +6332,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="K13">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B14" s="52" t="s">
+      <c r="J13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B14" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C14"/>
       <c r="D14" s="31" t="s">
         <v>34</v>
       </c>
@@ -6436,15 +6350,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="K14">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B15" s="52" t="s">
+      <c r="J14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B15" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C15"/>
       <c r="D15" s="31" t="s">
         <v>34</v>
       </c>
@@ -6455,16 +6368,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H15" s="30"/>
-      <c r="J15" s="36"/>
-      <c r="K15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B16" s="52" t="s">
+      <c r="J15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B16" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C16"/>
       <c r="D16" s="31" t="s">
         <v>34</v>
       </c>
@@ -6475,15 +6386,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="K16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B17" s="52" t="s">
+      <c r="J16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B17" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C17"/>
       <c r="D17" s="31" t="s">
         <v>34</v>
       </c>
@@ -6494,15 +6404,14 @@
         <v>4.5662100456621002E-3</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="K17">
+      <c r="J17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B18" s="52" t="s">
+    <row r="18" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B18" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C18"/>
       <c r="D18" s="31" t="s">
         <v>34</v>
       </c>
@@ -6513,15 +6422,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H18" s="32"/>
-      <c r="K18">
+      <c r="J18">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B19" s="52" t="s">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B19" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C19"/>
       <c r="D19" s="31" t="s">
         <v>34</v>
       </c>
@@ -6532,15 +6440,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H19" s="30"/>
-      <c r="K19">
+      <c r="J19">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B20" s="52" t="s">
+    <row r="20" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B20" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C20"/>
       <c r="D20" s="31" t="s">
         <v>34</v>
       </c>
@@ -6551,15 +6458,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H20" s="32"/>
-      <c r="K20">
+      <c r="J20">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B21" s="52" t="s">
+    <row r="21" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B21" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C21"/>
       <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
@@ -6570,15 +6476,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="K21">
+      <c r="J21">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B22" s="52" t="s">
+    <row r="22" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B22" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C22"/>
       <c r="D22" s="31" t="s">
         <v>34</v>
       </c>
@@ -6589,15 +6494,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H22" s="32"/>
-      <c r="K22">
+      <c r="J22">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B23" s="52" t="s">
+    <row r="23" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B23" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C23"/>
       <c r="D23" s="31" t="s">
         <v>34</v>
       </c>
@@ -6608,15 +6512,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H23" s="30"/>
-      <c r="K23">
+      <c r="J23">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B24" s="52" t="s">
+    <row r="24" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B24" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C24"/>
       <c r="D24" s="31" t="s">
         <v>34</v>
       </c>
@@ -6627,15 +6530,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H24" s="32"/>
-      <c r="K24">
+      <c r="J24">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B25" s="52" t="s">
+    <row r="25" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B25" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C25"/>
       <c r="D25" s="31" t="s">
         <v>34</v>
       </c>
@@ -6646,15 +6548,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H25" s="30"/>
-      <c r="K25">
+      <c r="J25">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B26" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="C26"/>
       <c r="D26" s="31" t="s">
         <v>34</v>
       </c>
@@ -6665,15 +6566,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H26" s="32"/>
-      <c r="K26">
+      <c r="J26">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B27" s="52" t="s">
+    <row r="27" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B27" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C27"/>
       <c r="D27" s="31" t="s">
         <v>34</v>
       </c>
@@ -6684,15 +6584,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H27" s="30"/>
-      <c r="K27">
+      <c r="J27">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B28" s="52" t="s">
+    <row r="28" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B28" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C28"/>
       <c r="D28" s="31" t="s">
         <v>34</v>
       </c>
@@ -6703,15 +6602,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H28" s="32"/>
-      <c r="K28">
+      <c r="J28">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B29" s="52" t="s">
+    <row r="29" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B29" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="C29"/>
       <c r="D29" s="31" t="s">
         <v>34</v>
       </c>
@@ -6722,15 +6620,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H29" s="30"/>
-      <c r="K29">
+      <c r="J29">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B30" s="52" t="s">
+    <row r="30" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B30" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C30"/>
       <c r="D30" s="31" t="s">
         <v>34</v>
       </c>
@@ -6741,15 +6638,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H30" s="32"/>
-      <c r="K30">
+      <c r="J30">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B31" s="52" t="s">
+    <row r="31" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B31" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C31"/>
       <c r="D31" s="31" t="s">
         <v>34</v>
       </c>
@@ -6760,15 +6656,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H31" s="30"/>
-      <c r="K31">
+      <c r="J31">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B32" s="52" t="s">
+    <row r="32" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B32" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="C32"/>
       <c r="D32" s="31" t="s">
         <v>34</v>
       </c>
@@ -6779,15 +6674,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H32" s="32"/>
-      <c r="K32">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="52" t="s">
+      <c r="J32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B33" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C33"/>
       <c r="D33" s="31" t="s">
         <v>34</v>
       </c>
@@ -6798,15 +6692,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H33" s="30"/>
-      <c r="K33">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B34" s="52" t="s">
+      <c r="J33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B34" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C34"/>
       <c r="D34" s="31" t="s">
         <v>34</v>
       </c>
@@ -6817,15 +6710,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H34" s="32"/>
-      <c r="K34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="52" t="s">
+      <c r="J34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B35" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C35"/>
       <c r="D35" s="31" t="s">
         <v>34</v>
       </c>
@@ -6836,15 +6728,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H35" s="30"/>
-      <c r="K35">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="52" t="s">
+      <c r="J35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B36" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C36"/>
       <c r="D36" s="31" t="s">
         <v>34</v>
       </c>
@@ -6855,15 +6746,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H36" s="32"/>
-      <c r="K36">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="52" t="s">
+      <c r="J36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B37" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C37"/>
       <c r="D37" s="31" t="s">
         <v>34</v>
       </c>
@@ -6874,15 +6764,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H37" s="30"/>
-      <c r="K37">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="52" t="s">
+      <c r="J37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B38" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C38"/>
       <c r="D38" s="31" t="s">
         <v>34</v>
       </c>
@@ -6893,15 +6782,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H38" s="32"/>
-      <c r="K38">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="52" t="s">
+      <c r="J38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B39" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C39"/>
       <c r="D39" s="31" t="s">
         <v>34</v>
       </c>
@@ -6912,15 +6800,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H39" s="30"/>
-      <c r="K39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="52" t="s">
+      <c r="J39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B40" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="C40"/>
       <c r="D40" s="31" t="s">
         <v>34</v>
       </c>
@@ -6931,15 +6818,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H40" s="32"/>
-      <c r="K40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="52" t="s">
+      <c r="J40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B41" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="C41"/>
       <c r="D41" s="31" t="s">
         <v>34</v>
       </c>
@@ -6950,15 +6836,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H41" s="30"/>
-      <c r="K41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B42" s="52" t="s">
+      <c r="J41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B42" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C42"/>
       <c r="D42" s="31" t="s">
         <v>34</v>
       </c>
@@ -6969,15 +6854,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H42" s="32"/>
-      <c r="K42">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B43" s="52" t="s">
+      <c r="J42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B43" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C43"/>
       <c r="D43" s="31" t="s">
         <v>34</v>
       </c>
@@ -6988,15 +6872,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H43" s="30"/>
-      <c r="K43">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B44" s="52" t="s">
+      <c r="J43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B44" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C44"/>
       <c r="D44" s="31" t="s">
         <v>34</v>
       </c>
@@ -7007,15 +6890,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H44" s="32"/>
-      <c r="K44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="52" t="s">
+      <c r="J44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B45" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C45"/>
       <c r="D45" s="31" t="s">
         <v>34</v>
       </c>
@@ -7026,15 +6908,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H45" s="30"/>
-      <c r="K45">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="52" t="s">
+      <c r="J45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B46" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="C46"/>
       <c r="D46" s="31" t="s">
         <v>34</v>
       </c>
@@ -7045,15 +6926,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H46" s="32"/>
-      <c r="K46">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B47" s="52" t="s">
+      <c r="J46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B47" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="C47"/>
       <c r="D47" s="31" t="s">
         <v>34</v>
       </c>
@@ -7064,15 +6944,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H47" s="30"/>
-      <c r="K47">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B48" s="52" t="s">
+      <c r="J47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B48" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C48"/>
       <c r="D48" s="31" t="s">
         <v>34</v>
       </c>
@@ -7083,15 +6962,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H48" s="32"/>
-      <c r="K48">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B49" s="52" t="s">
+      <c r="J48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B49" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C49"/>
       <c r="D49" s="31" t="s">
         <v>34</v>
       </c>
@@ -7102,15 +6980,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H49" s="30"/>
-      <c r="K49">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B50" s="52" t="s">
+      <c r="J49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B50" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C50"/>
       <c r="D50" s="31" t="s">
         <v>34</v>
       </c>
@@ -7121,15 +6998,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H50" s="32"/>
-      <c r="K50">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B51" s="52" t="s">
+      <c r="J50">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B51" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="C51"/>
       <c r="D51" s="31" t="s">
         <v>34</v>
       </c>
@@ -7140,15 +7016,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H51" s="30"/>
-      <c r="K51">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B52" s="52" t="s">
+      <c r="J51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B52" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="C52"/>
       <c r="D52" s="31" t="s">
         <v>34</v>
       </c>
@@ -7159,15 +7034,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H52" s="32"/>
-      <c r="K52">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B53" s="52" t="s">
+      <c r="J52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B53" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C53"/>
       <c r="D53" s="31" t="s">
         <v>34</v>
       </c>
@@ -7178,15 +7052,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H53" s="30"/>
-      <c r="K53">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B54" s="52" t="s">
+      <c r="J53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B54" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C54"/>
       <c r="D54" s="31" t="s">
         <v>34</v>
       </c>
@@ -7197,15 +7070,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H54" s="32"/>
-      <c r="K54">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B55" s="52" t="s">
+      <c r="J54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B55" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C55"/>
       <c r="D55" s="31" t="s">
         <v>34</v>
       </c>
@@ -7216,15 +7088,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H55" s="30"/>
-      <c r="K55">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B56" s="52" t="s">
+      <c r="J55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B56" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C56"/>
       <c r="D56" s="31" t="s">
         <v>34</v>
       </c>
@@ -7235,15 +7106,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H56" s="32"/>
-      <c r="K56">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B57" s="52" t="s">
+      <c r="J56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B57" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="C57"/>
       <c r="D57" s="31" t="s">
         <v>34</v>
       </c>
@@ -7254,15 +7124,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H57" s="30"/>
-      <c r="K57">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B58" s="52" t="s">
+      <c r="J57">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B58" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C58"/>
       <c r="D58" s="31" t="s">
         <v>34</v>
       </c>
@@ -7273,15 +7142,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H58" s="32"/>
-      <c r="K58">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B59" s="52" t="s">
+      <c r="J58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B59" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="C59"/>
       <c r="D59" s="31" t="s">
         <v>34</v>
       </c>
@@ -7292,15 +7160,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H59" s="30"/>
-      <c r="K59">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B60" s="52" t="s">
+      <c r="J59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B60" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C60"/>
       <c r="D60" s="31" t="s">
         <v>34</v>
       </c>
@@ -7311,15 +7178,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H60" s="32"/>
-      <c r="K60">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B61" s="52" t="s">
+      <c r="J60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B61" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C61"/>
       <c r="D61" s="31" t="s">
         <v>34</v>
       </c>
@@ -7330,15 +7196,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H61" s="30"/>
-      <c r="K61">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B62" s="52" t="s">
+      <c r="J61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B62" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C62"/>
       <c r="D62" s="31" t="s">
         <v>34</v>
       </c>
@@ -7349,15 +7214,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H62" s="32"/>
-      <c r="K62">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B63" s="52" t="s">
+      <c r="J62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B63" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C63"/>
       <c r="D63" s="31" t="s">
         <v>34</v>
       </c>
@@ -7368,35 +7232,33 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H63" s="30"/>
-      <c r="K63">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="43"/>
-      <c r="B64" s="52" t="s">
+      <c r="J63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="42"/>
+      <c r="B64" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C64"/>
       <c r="D64" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="32">
         <f t="shared" si="0"/>
         <v>4.4520547945205479E-3</v>
       </c>
-      <c r="H64" s="44"/>
-      <c r="K64">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B65" s="52" t="s">
+      <c r="H64" s="43"/>
+      <c r="J64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B65" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="C65"/>
       <c r="D65" s="31" t="s">
         <v>34</v>
       </c>
@@ -7407,15 +7269,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H65" s="30"/>
-      <c r="K65">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B66" s="52" t="s">
+      <c r="J65">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B66" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C66"/>
       <c r="D66" s="31" t="s">
         <v>34</v>
       </c>
@@ -7426,15 +7287,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H66" s="32"/>
-      <c r="K66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B67" s="52" t="s">
+      <c r="J66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B67" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C67"/>
       <c r="D67" s="31" t="s">
         <v>34</v>
       </c>
@@ -7445,15 +7305,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H67" s="30"/>
-      <c r="K67">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B68" s="52" t="s">
+      <c r="J67">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B68" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C68"/>
       <c r="D68" s="31" t="s">
         <v>34</v>
       </c>
@@ -7464,15 +7323,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H68" s="32"/>
-      <c r="K68">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B69" s="52" t="s">
+      <c r="J68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B69" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C69"/>
       <c r="D69" s="31" t="s">
         <v>34</v>
       </c>
@@ -7483,15 +7341,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H69" s="30"/>
-      <c r="K69">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B70" s="52" t="s">
+      <c r="J69">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B70" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C70"/>
       <c r="D70" s="31" t="s">
         <v>34</v>
       </c>
@@ -7502,15 +7359,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H70" s="32"/>
-      <c r="K70">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B71" s="52" t="s">
+      <c r="J70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B71" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C71"/>
       <c r="D71" s="31" t="s">
         <v>34</v>
       </c>
@@ -7521,15 +7377,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H71" s="30"/>
-      <c r="K71">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B72" s="52" t="s">
+      <c r="J71">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B72" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C72"/>
       <c r="D72" s="31" t="s">
         <v>34</v>
       </c>
@@ -7540,15 +7395,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H72" s="32"/>
-      <c r="K72">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B73" s="52" t="s">
+      <c r="J72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B73" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C73"/>
       <c r="D73" s="31" t="s">
         <v>34</v>
       </c>
@@ -7559,15 +7413,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H73" s="30"/>
-      <c r="K73">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B74" s="52" t="s">
+      <c r="J73">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B74" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C74"/>
       <c r="D74" s="31" t="s">
         <v>34</v>
       </c>
@@ -7578,34 +7431,32 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H74" s="32"/>
-      <c r="K74">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B75" s="52" t="s">
+      <c r="J74">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B75" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C75"/>
       <c r="D75" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="32">
-        <f t="shared" ref="G75:G138" si="1">K75/8760</f>
+        <f t="shared" ref="G75:G138" si="1">J75/8760</f>
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H75" s="30"/>
-      <c r="K75">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B76" s="52" t="s">
+      <c r="J75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B76" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C76"/>
       <c r="D76" s="31" t="s">
         <v>34</v>
       </c>
@@ -7616,15 +7467,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H76" s="32"/>
-      <c r="K76">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B77" s="52" t="s">
+      <c r="J76">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B77" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C77"/>
       <c r="D77" s="31" t="s">
         <v>34</v>
       </c>
@@ -7635,15 +7485,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H77" s="30"/>
-      <c r="K77">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B78" s="52" t="s">
+      <c r="J77">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B78" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C78"/>
       <c r="D78" s="31" t="s">
         <v>34</v>
       </c>
@@ -7654,15 +7503,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H78" s="32"/>
-      <c r="K78">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B79" s="52" t="s">
+      <c r="J78">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B79" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C79"/>
       <c r="D79" s="31" t="s">
         <v>34</v>
       </c>
@@ -7673,15 +7521,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H79" s="30"/>
-      <c r="K79">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B80" s="52" t="s">
+      <c r="J79">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B80" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C80"/>
       <c r="D80" s="31" t="s">
         <v>34</v>
       </c>
@@ -7692,15 +7539,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H80" s="32"/>
-      <c r="K80">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B81" s="52" t="s">
+      <c r="J80">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B81" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C81"/>
       <c r="D81" s="31" t="s">
         <v>34</v>
       </c>
@@ -7711,15 +7557,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H81" s="30"/>
-      <c r="K81">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B82" s="52" t="s">
+      <c r="J81">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B82" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C82"/>
       <c r="D82" s="31" t="s">
         <v>34</v>
       </c>
@@ -7730,15 +7575,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H82" s="32"/>
-      <c r="K82">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B83" s="52" t="s">
+      <c r="J82">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B83" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C83"/>
       <c r="D83" s="31" t="s">
         <v>34</v>
       </c>
@@ -7749,15 +7593,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H83" s="30"/>
-      <c r="K83">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B84" s="52" t="s">
+      <c r="J83">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B84" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C84"/>
       <c r="D84" s="31" t="s">
         <v>34</v>
       </c>
@@ -7768,15 +7611,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H84" s="32"/>
-      <c r="K84">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B85" s="52" t="s">
+      <c r="J84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B85" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="C85"/>
       <c r="D85" s="31" t="s">
         <v>34</v>
       </c>
@@ -7787,15 +7629,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H85" s="30"/>
-      <c r="K85">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B86" s="52" t="s">
+      <c r="J85">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B86" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C86"/>
       <c r="D86" s="31" t="s">
         <v>34</v>
       </c>
@@ -7806,15 +7647,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H86" s="32"/>
-      <c r="K86">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B87" s="52" t="s">
+      <c r="J86">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B87" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C87"/>
       <c r="D87" s="31" t="s">
         <v>34</v>
       </c>
@@ -7825,15 +7665,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H87" s="30"/>
-      <c r="K87">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B88" s="52" t="s">
+      <c r="J87">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B88" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C88"/>
       <c r="D88" s="31" t="s">
         <v>34</v>
       </c>
@@ -7844,15 +7683,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H88" s="32"/>
-      <c r="K88">
+      <c r="J88">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B89" s="52" t="s">
+    <row r="89" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B89" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="C89"/>
       <c r="D89" s="31" t="s">
         <v>34</v>
       </c>
@@ -7863,15 +7701,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H89" s="30"/>
-      <c r="K89">
+      <c r="J89">
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B90" s="52" t="s">
+    <row r="90" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B90" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C90"/>
       <c r="D90" s="31" t="s">
         <v>34</v>
       </c>
@@ -7882,15 +7719,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H90" s="32"/>
-      <c r="K90">
+      <c r="J90">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B91" s="52" t="s">
+    <row r="91" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B91" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C91"/>
       <c r="D91" s="31" t="s">
         <v>34</v>
       </c>
@@ -7901,15 +7737,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H91" s="30"/>
-      <c r="K91">
+      <c r="J91">
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B92" s="52" t="s">
+    <row r="92" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B92" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C92"/>
       <c r="D92" s="31" t="s">
         <v>34</v>
       </c>
@@ -7920,15 +7755,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H92" s="32"/>
-      <c r="K92">
+      <c r="J92">
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B93" s="52" t="s">
+    <row r="93" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B93" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C93"/>
       <c r="D93" s="31" t="s">
         <v>34</v>
       </c>
@@ -7939,15 +7773,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H93" s="30"/>
-      <c r="K93">
+      <c r="J93">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B94" s="52" t="s">
+    <row r="94" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B94" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C94"/>
       <c r="D94" s="31" t="s">
         <v>34</v>
       </c>
@@ -7958,15 +7791,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H94" s="32"/>
-      <c r="K94">
+      <c r="J94">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B95" s="52" t="s">
+    <row r="95" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B95" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C95"/>
       <c r="D95" s="31" t="s">
         <v>34</v>
       </c>
@@ -7977,15 +7809,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H95" s="30"/>
-      <c r="K95">
+      <c r="J95">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B96" s="52" t="s">
+    <row r="96" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B96" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="C96"/>
       <c r="D96" s="31" t="s">
         <v>34</v>
       </c>
@@ -7996,15 +7827,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H96" s="32"/>
-      <c r="K96">
+      <c r="J96">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B97" s="52" t="s">
+    <row r="97" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B97" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C97"/>
       <c r="D97" s="31" t="s">
         <v>34</v>
       </c>
@@ -8015,15 +7845,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H97" s="30"/>
-      <c r="K97">
+      <c r="J97">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B98" s="52" t="s">
+    <row r="98" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B98" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="C98"/>
       <c r="D98" s="31" t="s">
         <v>34</v>
       </c>
@@ -8034,15 +7863,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H98" s="32"/>
-      <c r="K98">
+      <c r="J98">
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B99" s="52" t="s">
+    <row r="99" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B99" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C99"/>
       <c r="D99" s="31" t="s">
         <v>34</v>
       </c>
@@ -8053,15 +7881,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H99" s="30"/>
-      <c r="K99">
+      <c r="J99">
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B100" s="52" t="s">
+    <row r="100" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B100" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C100"/>
       <c r="D100" s="31" t="s">
         <v>34</v>
       </c>
@@ -8072,15 +7899,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H100" s="32"/>
-      <c r="K100">
+      <c r="J100">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B101" s="52" t="s">
+    <row r="101" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B101" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C101"/>
       <c r="D101" s="31" t="s">
         <v>34</v>
       </c>
@@ -8091,15 +7917,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H101" s="30"/>
-      <c r="K101">
+      <c r="J101">
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B102" s="52" t="s">
+    <row r="102" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B102" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="C102"/>
       <c r="D102" s="31" t="s">
         <v>34</v>
       </c>
@@ -8110,15 +7935,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H102" s="32"/>
-      <c r="K102">
+      <c r="J102">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B103" s="52" t="s">
+    <row r="103" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B103" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C103"/>
       <c r="D103" s="31" t="s">
         <v>34</v>
       </c>
@@ -8129,15 +7953,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H103" s="30"/>
-      <c r="K103">
+      <c r="J103">
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B104" s="52" t="s">
+    <row r="104" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B104" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="C104"/>
       <c r="D104" s="31" t="s">
         <v>34</v>
       </c>
@@ -8148,15 +7971,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H104" s="32"/>
-      <c r="K104">
+      <c r="J104">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B105" s="52" t="s">
+    <row r="105" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B105" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C105"/>
       <c r="D105" s="31" t="s">
         <v>34</v>
       </c>
@@ -8167,15 +7989,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H105" s="30"/>
-      <c r="K105">
+      <c r="J105">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B106" s="52" t="s">
+    <row r="106" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B106" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="C106"/>
       <c r="D106" s="31" t="s">
         <v>34</v>
       </c>
@@ -8186,15 +8007,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H106" s="32"/>
-      <c r="K106">
+      <c r="J106">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B107" s="52" t="s">
+    <row r="107" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B107" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C107"/>
       <c r="D107" s="31" t="s">
         <v>34</v>
       </c>
@@ -8205,15 +8025,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H107" s="30"/>
-      <c r="K107">
+      <c r="J107">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B108" s="52" t="s">
+    <row r="108" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B108" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="C108"/>
       <c r="D108" s="31" t="s">
         <v>34</v>
       </c>
@@ -8224,15 +8043,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H108" s="32"/>
-      <c r="K108">
+      <c r="J108">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B109" s="52" t="s">
+    <row r="109" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B109" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C109"/>
       <c r="D109" s="31" t="s">
         <v>34</v>
       </c>
@@ -8243,15 +8061,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H109" s="30"/>
-      <c r="K109">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B110" s="52" t="s">
+      <c r="J109">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B110" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C110"/>
       <c r="D110" s="31" t="s">
         <v>34</v>
       </c>
@@ -8262,15 +8079,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H110" s="32"/>
-      <c r="K110">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B111" s="52" t="s">
+      <c r="J110">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B111" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="C111"/>
       <c r="D111" s="31" t="s">
         <v>34</v>
       </c>
@@ -8281,15 +8097,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H111" s="30"/>
-      <c r="K111">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B112" s="52" t="s">
+      <c r="J111">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B112" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="C112"/>
       <c r="D112" s="31" t="s">
         <v>34</v>
       </c>
@@ -8300,15 +8115,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H112" s="32"/>
-      <c r="K112">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B113" s="52" t="s">
+      <c r="J112">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B113" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C113"/>
       <c r="D113" s="31" t="s">
         <v>34</v>
       </c>
@@ -8319,15 +8133,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H113" s="30"/>
-      <c r="K113">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B114" s="52" t="s">
+      <c r="J113">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B114" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="C114"/>
       <c r="D114" s="31" t="s">
         <v>34</v>
       </c>
@@ -8338,15 +8151,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H114" s="32"/>
-      <c r="K114">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B115" s="52" t="s">
+      <c r="J114">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B115" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="C115"/>
       <c r="D115" s="31" t="s">
         <v>34</v>
       </c>
@@ -8357,15 +8169,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H115" s="30"/>
-      <c r="K115">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B116" s="52" t="s">
+      <c r="J115">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B116" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C116"/>
       <c r="D116" s="31" t="s">
         <v>34</v>
       </c>
@@ -8376,15 +8187,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H116" s="32"/>
-      <c r="K116">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B117" s="52" t="s">
+      <c r="J116">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B117" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C117"/>
       <c r="D117" s="31" t="s">
         <v>34</v>
       </c>
@@ -8395,15 +8205,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H117" s="30"/>
-      <c r="K117">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B118" s="52" t="s">
+      <c r="J117">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B118" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="C118"/>
       <c r="D118" s="31" t="s">
         <v>34</v>
       </c>
@@ -8414,15 +8223,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H118" s="32"/>
-      <c r="K118">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B119" s="52" t="s">
+      <c r="J118">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B119" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C119"/>
       <c r="D119" s="31" t="s">
         <v>34</v>
       </c>
@@ -8433,15 +8241,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H119" s="30"/>
-      <c r="K119">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B120" s="52" t="s">
+      <c r="J119">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B120" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C120"/>
       <c r="D120" s="31" t="s">
         <v>34</v>
       </c>
@@ -8452,15 +8259,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H120" s="32"/>
-      <c r="K120">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B121" s="52" t="s">
+      <c r="J120">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B121" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C121"/>
       <c r="D121" s="31" t="s">
         <v>34</v>
       </c>
@@ -8471,15 +8277,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H121" s="30"/>
-      <c r="K121">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B122" s="52" t="s">
+      <c r="J121">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B122" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C122"/>
       <c r="D122" s="31" t="s">
         <v>34</v>
       </c>
@@ -8490,15 +8295,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H122" s="32"/>
-      <c r="K122">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B123" s="52" t="s">
+      <c r="J122">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B123" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="C123"/>
       <c r="D123" s="31" t="s">
         <v>34</v>
       </c>
@@ -8509,15 +8313,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H123" s="30"/>
-      <c r="K123">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B124" s="52" t="s">
+      <c r="J123">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B124" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="C124"/>
       <c r="D124" s="31" t="s">
         <v>34</v>
       </c>
@@ -8528,15 +8331,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H124" s="32"/>
-      <c r="K124">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B125" s="52" t="s">
+      <c r="J124">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B125" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C125"/>
       <c r="D125" s="31" t="s">
         <v>34</v>
       </c>
@@ -8547,15 +8349,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H125" s="30"/>
-      <c r="K125">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B126" s="52" t="s">
+      <c r="J125">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B126" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C126"/>
       <c r="D126" s="31" t="s">
         <v>34</v>
       </c>
@@ -8566,15 +8367,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H126" s="32"/>
-      <c r="K126">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B127" s="52" t="s">
+      <c r="J126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B127" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="C127"/>
       <c r="D127" s="31" t="s">
         <v>34</v>
       </c>
@@ -8585,15 +8385,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H127" s="30"/>
-      <c r="K127">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B128" s="52" t="s">
+      <c r="J127">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B128" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C128"/>
       <c r="D128" s="31" t="s">
         <v>34</v>
       </c>
@@ -8604,15 +8403,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H128" s="32"/>
-      <c r="K128">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B129" s="52" t="s">
+      <c r="J128">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B129" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="C129"/>
       <c r="D129" s="31" t="s">
         <v>34</v>
       </c>
@@ -8623,15 +8421,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H129" s="30"/>
-      <c r="K129">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B130" s="52" t="s">
+      <c r="J129">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B130" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="C130"/>
       <c r="D130" s="31" t="s">
         <v>34</v>
       </c>
@@ -8642,15 +8439,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H130" s="32"/>
-      <c r="K130">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B131" s="52" t="s">
+      <c r="J130">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B131" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="C131"/>
       <c r="D131" s="31" t="s">
         <v>34</v>
       </c>
@@ -8661,15 +8457,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H131" s="30"/>
-      <c r="K131">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B132" s="52" t="s">
+      <c r="J131">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B132" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C132"/>
       <c r="D132" s="31" t="s">
         <v>34</v>
       </c>
@@ -8680,15 +8475,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H132" s="32"/>
-      <c r="K132">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B133" s="52" t="s">
+      <c r="J132">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B133" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="C133"/>
       <c r="D133" s="31" t="s">
         <v>34</v>
       </c>
@@ -8699,15 +8493,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H133" s="30"/>
-      <c r="K133">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B134" s="52" t="s">
+      <c r="J133">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B134" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C134"/>
       <c r="D134" s="31" t="s">
         <v>34</v>
       </c>
@@ -8718,15 +8511,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H134" s="32"/>
-      <c r="K134">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B135" s="52" t="s">
+      <c r="J134">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B135" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="C135"/>
       <c r="D135" s="31" t="s">
         <v>34</v>
       </c>
@@ -8737,15 +8529,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H135" s="30"/>
-      <c r="K135">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B136" s="52" t="s">
+      <c r="J135">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B136" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="C136"/>
       <c r="D136" s="31" t="s">
         <v>34</v>
       </c>
@@ -8756,15 +8547,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H136" s="32"/>
-      <c r="K136">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B137" s="52" t="s">
+      <c r="J136">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B137" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C137"/>
       <c r="D137" s="31" t="s">
         <v>34</v>
       </c>
@@ -8775,15 +8565,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H137" s="30"/>
-      <c r="K137">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B138" s="52" t="s">
+      <c r="J137">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B138" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="C138"/>
       <c r="D138" s="31" t="s">
         <v>34</v>
       </c>
@@ -8794,34 +8583,32 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H138" s="32"/>
-      <c r="K138">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B139" s="52" t="s">
+      <c r="J138">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B139" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="C139"/>
       <c r="D139" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E139" s="30"/>
       <c r="F139" s="30"/>
       <c r="G139" s="32">
-        <f t="shared" ref="G139:G202" si="2">K139/8760</f>
+        <f t="shared" ref="G139:G202" si="2">J139/8760</f>
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H139" s="30"/>
-      <c r="K139">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B140" s="52" t="s">
+      <c r="J139">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B140" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="C140"/>
       <c r="D140" s="31" t="s">
         <v>34</v>
       </c>
@@ -8832,15 +8619,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H140" s="32"/>
-      <c r="K140">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B141" s="52" t="s">
+      <c r="J140">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B141" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C141"/>
       <c r="D141" s="31" t="s">
         <v>34</v>
       </c>
@@ -8851,15 +8637,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H141" s="30"/>
-      <c r="K141">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B142" s="52" t="s">
+      <c r="J141">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B142" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C142"/>
       <c r="D142" s="31" t="s">
         <v>34</v>
       </c>
@@ -8870,15 +8655,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H142" s="32"/>
-      <c r="K142">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B143" s="52" t="s">
+      <c r="J142">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B143" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="C143"/>
       <c r="D143" s="31" t="s">
         <v>34</v>
       </c>
@@ -8889,15 +8673,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H143" s="30"/>
-      <c r="K143">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B144" s="52" t="s">
+      <c r="J143">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B144" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C144"/>
       <c r="D144" s="31" t="s">
         <v>34</v>
       </c>
@@ -8908,15 +8691,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H144" s="32"/>
-      <c r="K144">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B145" s="52" t="s">
+      <c r="J144">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B145" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="C145"/>
       <c r="D145" s="31" t="s">
         <v>34</v>
       </c>
@@ -8927,15 +8709,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H145" s="30"/>
-      <c r="K145">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B146" s="52" t="s">
+      <c r="J145">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B146" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="C146"/>
       <c r="D146" s="31" t="s">
         <v>34</v>
       </c>
@@ -8946,15 +8727,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H146" s="32"/>
-      <c r="K146">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B147" s="52" t="s">
+      <c r="J146">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B147" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C147"/>
       <c r="D147" s="31" t="s">
         <v>34</v>
       </c>
@@ -8965,15 +8745,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H147" s="30"/>
-      <c r="K147">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B148" s="52" t="s">
+      <c r="J147">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B148" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="C148"/>
       <c r="D148" s="31" t="s">
         <v>34</v>
       </c>
@@ -8984,15 +8763,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H148" s="32"/>
-      <c r="K148">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B149" s="52" t="s">
+      <c r="J148">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B149" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C149"/>
       <c r="D149" s="31" t="s">
         <v>34</v>
       </c>
@@ -9003,15 +8781,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H149" s="30"/>
-      <c r="K149">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B150" s="52" t="s">
+      <c r="J149">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B150" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C150"/>
       <c r="D150" s="31" t="s">
         <v>34</v>
       </c>
@@ -9022,15 +8799,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H150" s="32"/>
-      <c r="K150">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B151" s="52" t="s">
+      <c r="J150">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B151" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="C151"/>
       <c r="D151" s="31" t="s">
         <v>34</v>
       </c>
@@ -9041,15 +8817,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H151" s="30"/>
-      <c r="K151">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B152" s="52" t="s">
+      <c r="J151">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B152" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="C152"/>
       <c r="D152" s="31" t="s">
         <v>34</v>
       </c>
@@ -9060,15 +8835,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H152" s="32"/>
-      <c r="K152">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B153" s="52" t="s">
+      <c r="J152">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B153" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="C153"/>
       <c r="D153" s="31" t="s">
         <v>34</v>
       </c>
@@ -9079,15 +8853,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H153" s="30"/>
-      <c r="K153">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B154" s="52" t="s">
+      <c r="J153">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B154" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="C154"/>
       <c r="D154" s="31" t="s">
         <v>34</v>
       </c>
@@ -9098,15 +8871,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H154" s="32"/>
-      <c r="K154">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B155" s="52" t="s">
+      <c r="J154">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B155" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C155"/>
       <c r="D155" s="31" t="s">
         <v>34</v>
       </c>
@@ -9117,15 +8889,14 @@
         <v>4.3378995433789955E-3</v>
       </c>
       <c r="H155" s="30"/>
-      <c r="K155">
+      <c r="J155">
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B156" s="52" t="s">
+    <row r="156" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B156" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="C156"/>
       <c r="D156" s="31" t="s">
         <v>34</v>
       </c>
@@ -9136,15 +8907,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H156" s="32"/>
-      <c r="K156">
+      <c r="J156">
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B157" s="52" t="s">
+    <row r="157" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B157" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C157"/>
       <c r="D157" s="31" t="s">
         <v>34</v>
       </c>
@@ -9155,15 +8925,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H157" s="30"/>
-      <c r="K157">
+      <c r="J157">
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B158" s="52" t="s">
+    <row r="158" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B158" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C158"/>
       <c r="D158" s="31" t="s">
         <v>34</v>
       </c>
@@ -9174,15 +8943,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H158" s="32"/>
-      <c r="K158">
+      <c r="J158">
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B159" s="52" t="s">
+    <row r="159" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B159" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C159"/>
       <c r="D159" s="31" t="s">
         <v>34</v>
       </c>
@@ -9193,15 +8961,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H159" s="30"/>
-      <c r="K159">
+      <c r="J159">
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B160" s="52" t="s">
+    <row r="160" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B160" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C160"/>
       <c r="D160" s="31" t="s">
         <v>34</v>
       </c>
@@ -9212,15 +8979,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H160" s="32"/>
-      <c r="K160">
+      <c r="J160">
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B161" s="52" t="s">
+    <row r="161" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B161" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="C161"/>
       <c r="D161" s="31" t="s">
         <v>34</v>
       </c>
@@ -9231,15 +8997,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H161" s="30"/>
-      <c r="K161">
+      <c r="J161">
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B162" s="52" t="s">
+    <row r="162" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B162" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C162"/>
       <c r="D162" s="31" t="s">
         <v>34</v>
       </c>
@@ -9250,15 +9015,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H162" s="32"/>
-      <c r="K162">
+      <c r="J162">
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B163" s="52" t="s">
+    <row r="163" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B163" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="C163"/>
       <c r="D163" s="31" t="s">
         <v>34</v>
       </c>
@@ -9269,15 +9033,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H163" s="30"/>
-      <c r="K163">
+      <c r="J163">
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B164" s="52" t="s">
+    <row r="164" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B164" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="C164"/>
       <c r="D164" s="31" t="s">
         <v>34</v>
       </c>
@@ -9288,15 +9051,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H164" s="32"/>
-      <c r="K164">
+      <c r="J164">
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B165" s="52" t="s">
+    <row r="165" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B165" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="C165"/>
       <c r="D165" s="31" t="s">
         <v>34</v>
       </c>
@@ -9307,15 +9069,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H165" s="30"/>
-      <c r="K165">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B166" s="52" t="s">
+      <c r="J165">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B166" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="C166"/>
       <c r="D166" s="31" t="s">
         <v>34</v>
       </c>
@@ -9326,15 +9087,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H166" s="32"/>
-      <c r="K166">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B167" s="52" t="s">
+      <c r="J166">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B167" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="C167"/>
       <c r="D167" s="31" t="s">
         <v>34</v>
       </c>
@@ -9345,15 +9105,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H167" s="30"/>
-      <c r="K167">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B168" s="52" t="s">
+      <c r="J167">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B168" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C168"/>
       <c r="D168" s="31" t="s">
         <v>34</v>
       </c>
@@ -9364,15 +9123,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H168" s="32"/>
-      <c r="K168">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B169" s="52" t="s">
+      <c r="J168">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B169" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C169"/>
       <c r="D169" s="31" t="s">
         <v>34</v>
       </c>
@@ -9383,15 +9141,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H169" s="30"/>
-      <c r="K169">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B170" s="52" t="s">
+      <c r="J169">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B170" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C170"/>
       <c r="D170" s="31" t="s">
         <v>34</v>
       </c>
@@ -9402,15 +9159,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H170" s="32"/>
-      <c r="K170">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B171" s="52" t="s">
+      <c r="J170">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B171" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="C171"/>
       <c r="D171" s="31" t="s">
         <v>34</v>
       </c>
@@ -9421,15 +9177,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H171" s="30"/>
-      <c r="K171">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B172" s="52" t="s">
+      <c r="J171">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B172" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="C172"/>
       <c r="D172" s="31" t="s">
         <v>34</v>
       </c>
@@ -9440,15 +9195,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H172" s="32"/>
-      <c r="K172">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B173" s="52" t="s">
+      <c r="J172">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B173" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="C173"/>
       <c r="D173" s="31" t="s">
         <v>34</v>
       </c>
@@ -9459,15 +9213,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H173" s="30"/>
-      <c r="K173">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B174" s="52" t="s">
+      <c r="J173">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B174" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C174"/>
       <c r="D174" s="31" t="s">
         <v>34</v>
       </c>
@@ -9478,15 +9231,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H174" s="32"/>
-      <c r="K174">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B175" s="52" t="s">
+      <c r="J174">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B175" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="C175"/>
       <c r="D175" s="31" t="s">
         <v>34</v>
       </c>
@@ -9497,15 +9249,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H175" s="30"/>
-      <c r="K175">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B176" s="52" t="s">
+      <c r="J175">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B176" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="C176"/>
       <c r="D176" s="31" t="s">
         <v>34</v>
       </c>
@@ -9516,15 +9267,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H176" s="32"/>
-      <c r="K176">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B177" s="52" t="s">
+      <c r="J176">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B177" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="C177"/>
       <c r="D177" s="31" t="s">
         <v>34</v>
       </c>
@@ -9535,15 +9285,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H177" s="30"/>
-      <c r="K177">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B178" s="52" t="s">
+      <c r="J177">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B178" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="C178"/>
       <c r="D178" s="31" t="s">
         <v>34</v>
       </c>
@@ -9554,15 +9303,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H178" s="32"/>
-      <c r="K178">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B179" s="52" t="s">
+      <c r="J178">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B179" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="C179"/>
       <c r="D179" s="31" t="s">
         <v>34</v>
       </c>
@@ -9573,15 +9321,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H179" s="30"/>
-      <c r="K179">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B180" s="52" t="s">
+      <c r="J179">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B180" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="C180"/>
       <c r="D180" s="31" t="s">
         <v>34</v>
       </c>
@@ -9592,15 +9339,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H180" s="32"/>
-      <c r="K180">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="181" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B181" s="52" t="s">
+      <c r="J180">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B181" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="C181"/>
       <c r="D181" s="31" t="s">
         <v>34</v>
       </c>
@@ -9611,15 +9357,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H181" s="30"/>
-      <c r="K181">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B182" s="52" t="s">
+      <c r="J181">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B182" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="C182"/>
       <c r="D182" s="31" t="s">
         <v>34</v>
       </c>
@@ -9630,15 +9375,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H182" s="32"/>
-      <c r="K182">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B183" s="52" t="s">
+      <c r="J182">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B183" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C183"/>
       <c r="D183" s="31" t="s">
         <v>34</v>
       </c>
@@ -9649,15 +9393,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H183" s="30"/>
-      <c r="K183">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B184" s="52" t="s">
+      <c r="J183">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B184" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="C184"/>
       <c r="D184" s="31" t="s">
         <v>34</v>
       </c>
@@ -9668,15 +9411,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H184" s="32"/>
-      <c r="K184">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B185" s="52" t="s">
+      <c r="J184">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B185" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="C185"/>
       <c r="D185" s="31" t="s">
         <v>34</v>
       </c>
@@ -9687,15 +9429,14 @@
         <v>4.3378995433789955E-3</v>
       </c>
       <c r="H185" s="30"/>
-      <c r="K185">
+      <c r="J185">
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B186" s="52" t="s">
+    <row r="186" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B186" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="C186"/>
       <c r="D186" s="31" t="s">
         <v>34</v>
       </c>
@@ -9706,15 +9447,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H186" s="32"/>
-      <c r="K186">
+      <c r="J186">
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B187" s="52" t="s">
+    <row r="187" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B187" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="C187"/>
       <c r="D187" s="31" t="s">
         <v>34</v>
       </c>
@@ -9725,15 +9465,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H187" s="30"/>
-      <c r="K187">
+      <c r="J187">
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B188" s="52" t="s">
+    <row r="188" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B188" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="C188"/>
       <c r="D188" s="31" t="s">
         <v>34</v>
       </c>
@@ -9744,15 +9483,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H188" s="32"/>
-      <c r="K188">
+      <c r="J188">
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B189" s="52" t="s">
+    <row r="189" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B189" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="C189"/>
       <c r="D189" s="31" t="s">
         <v>34</v>
       </c>
@@ -9763,15 +9501,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H189" s="30"/>
-      <c r="K189">
+      <c r="J189">
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B190" s="52" t="s">
+    <row r="190" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B190" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="C190"/>
       <c r="D190" s="31" t="s">
         <v>34</v>
       </c>
@@ -9782,15 +9519,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H190" s="32"/>
-      <c r="K190">
+      <c r="J190">
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B191" s="52" t="s">
+    <row r="191" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B191" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="C191"/>
       <c r="D191" s="31" t="s">
         <v>34</v>
       </c>
@@ -9801,15 +9537,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H191" s="30"/>
-      <c r="K191">
+      <c r="J191">
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B192" s="52" t="s">
+    <row r="192" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B192" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="C192"/>
       <c r="D192" s="31" t="s">
         <v>34</v>
       </c>
@@ -9820,15 +9555,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H192" s="32"/>
-      <c r="K192">
+      <c r="J192">
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B193" s="52" t="s">
+    <row r="193" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B193" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="C193"/>
       <c r="D193" s="31" t="s">
         <v>34</v>
       </c>
@@ -9839,15 +9573,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H193" s="30"/>
-      <c r="K193">
+      <c r="J193">
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B194" s="52" t="s">
+    <row r="194" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B194" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="C194"/>
       <c r="D194" s="31" t="s">
         <v>34</v>
       </c>
@@ -9858,15 +9591,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H194" s="32"/>
-      <c r="K194">
+      <c r="J194">
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B195" s="52" t="s">
+    <row r="195" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B195" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="C195"/>
       <c r="D195" s="31" t="s">
         <v>34</v>
       </c>
@@ -9877,15 +9609,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H195" s="30"/>
-      <c r="K195">
+      <c r="J195">
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B196" s="52" t="s">
+    <row r="196" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B196" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="C196"/>
       <c r="D196" s="31" t="s">
         <v>34</v>
       </c>
@@ -9896,15 +9627,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H196" s="32"/>
-      <c r="K196">
+      <c r="J196">
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B197" s="52" t="s">
+    <row r="197" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B197" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="C197"/>
       <c r="D197" s="31" t="s">
         <v>34</v>
       </c>
@@ -9915,15 +9645,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H197" s="30"/>
-      <c r="K197">
+      <c r="J197">
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B198" s="52" t="s">
+    <row r="198" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B198" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="C198"/>
       <c r="D198" s="31" t="s">
         <v>34</v>
       </c>
@@ -9934,15 +9663,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H198" s="32"/>
-      <c r="K198">
+      <c r="J198">
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B199" s="52" t="s">
+    <row r="199" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B199" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="C199"/>
       <c r="D199" s="31" t="s">
         <v>34</v>
       </c>
@@ -9953,15 +9681,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H199" s="30"/>
-      <c r="K199">
+      <c r="J199">
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B200" s="52" t="s">
+    <row r="200" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B200" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="C200"/>
       <c r="D200" s="31" t="s">
         <v>34</v>
       </c>
@@ -9972,15 +9699,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H200" s="32"/>
-      <c r="K200">
+      <c r="J200">
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B201" s="52" t="s">
+    <row r="201" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B201" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="C201"/>
       <c r="D201" s="31" t="s">
         <v>34</v>
       </c>
@@ -9991,15 +9717,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H201" s="30"/>
-      <c r="K201">
+      <c r="J201">
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B202" s="52" t="s">
+    <row r="202" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B202" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="C202"/>
       <c r="D202" s="31" t="s">
         <v>34</v>
       </c>
@@ -10010,34 +9735,32 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H202" s="32"/>
-      <c r="K202">
+      <c r="J202">
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B203" s="52" t="s">
+    <row r="203" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B203" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="C203"/>
       <c r="D203" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E203" s="30"/>
       <c r="F203" s="30"/>
       <c r="G203" s="32">
-        <f t="shared" ref="G203:G233" si="3">K203/8760</f>
+        <f t="shared" ref="G203:G233" si="3">J203/8760</f>
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H203" s="30"/>
-      <c r="K203">
+      <c r="J203">
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B204" s="52" t="s">
+    <row r="204" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B204" s="51" t="s">
         <v>370</v>
       </c>
-      <c r="C204"/>
       <c r="D204" s="31" t="s">
         <v>34</v>
       </c>
@@ -10048,15 +9771,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H204" s="32"/>
-      <c r="K204">
+      <c r="J204">
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B205" s="52" t="s">
+    <row r="205" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B205" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="C205"/>
       <c r="D205" s="31" t="s">
         <v>34</v>
       </c>
@@ -10067,15 +9789,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H205" s="30"/>
-      <c r="K205">
+      <c r="J205">
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B206" s="52" t="s">
+    <row r="206" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B206" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="C206"/>
       <c r="D206" s="31" t="s">
         <v>34</v>
       </c>
@@ -10086,15 +9807,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H206" s="32"/>
-      <c r="K206">
+      <c r="J206">
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B207" s="52" t="s">
+    <row r="207" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B207" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="C207"/>
       <c r="D207" s="31" t="s">
         <v>34</v>
       </c>
@@ -10105,15 +9825,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H207" s="30"/>
-      <c r="K207">
+      <c r="J207">
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B208" s="52" t="s">
+    <row r="208" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B208" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="C208"/>
       <c r="D208" s="31" t="s">
         <v>34</v>
       </c>
@@ -10124,15 +9843,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H208" s="32"/>
-      <c r="K208">
+      <c r="J208">
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B209" s="52" t="s">
+    <row r="209" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B209" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="C209"/>
       <c r="D209" s="31" t="s">
         <v>34</v>
       </c>
@@ -10143,15 +9861,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H209" s="30"/>
-      <c r="K209">
+      <c r="J209">
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B210" s="52" t="s">
+    <row r="210" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B210" s="51" t="s">
         <v>376</v>
       </c>
-      <c r="C210"/>
       <c r="D210" s="31" t="s">
         <v>34</v>
       </c>
@@ -10162,15 +9879,14 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="H210" s="32"/>
-      <c r="K210">
+      <c r="J210">
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B211" s="52" t="s">
+    <row r="211" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B211" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="C211"/>
       <c r="D211" s="31" t="s">
         <v>34</v>
       </c>
@@ -10181,15 +9897,14 @@
         <v>4.2237442922374432E-3</v>
       </c>
       <c r="H211" s="30"/>
-      <c r="K211">
+      <c r="J211">
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B212" s="52" t="s">
+    <row r="212" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B212" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="C212"/>
       <c r="D212" s="31" t="s">
         <v>34</v>
       </c>
@@ -10200,15 +9915,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H212" s="32"/>
-      <c r="K212">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="213" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B213" s="52" t="s">
+      <c r="J212">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B213" s="51" t="s">
         <v>379</v>
       </c>
-      <c r="C213"/>
       <c r="D213" s="31" t="s">
         <v>34</v>
       </c>
@@ -10219,15 +9933,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H213" s="30"/>
-      <c r="K213">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="214" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B214" s="52" t="s">
+      <c r="J213">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B214" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="C214"/>
       <c r="D214" s="31" t="s">
         <v>34</v>
       </c>
@@ -10238,15 +9951,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H214" s="32"/>
-      <c r="K214">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="215" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B215" s="52" t="s">
+      <c r="J214">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B215" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="C215"/>
       <c r="D215" s="31" t="s">
         <v>34</v>
       </c>
@@ -10257,15 +9969,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H215" s="30"/>
-      <c r="K215">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="216" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B216" s="52" t="s">
+      <c r="J215">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B216" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C216"/>
       <c r="D216" s="31" t="s">
         <v>34</v>
       </c>
@@ -10276,15 +9987,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H216" s="32"/>
-      <c r="K216">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="217" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B217" s="52" t="s">
+      <c r="J216">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B217" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="C217"/>
       <c r="D217" s="31" t="s">
         <v>34</v>
       </c>
@@ -10295,15 +10005,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H217" s="30"/>
-      <c r="K217">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="218" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B218" s="52" t="s">
+      <c r="J217">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B218" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="C218"/>
       <c r="D218" s="31" t="s">
         <v>34</v>
       </c>
@@ -10314,15 +10023,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H218" s="32"/>
-      <c r="K218">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="219" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B219" s="52" t="s">
+      <c r="J218">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B219" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="C219"/>
       <c r="D219" s="31" t="s">
         <v>34</v>
       </c>
@@ -10333,15 +10041,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H219" s="30"/>
-      <c r="K219">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="220" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B220" s="52" t="s">
+      <c r="J219">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B220" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="C220"/>
       <c r="D220" s="31" t="s">
         <v>34</v>
       </c>
@@ -10352,15 +10059,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H220" s="32"/>
-      <c r="K220">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="221" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B221" s="52" t="s">
+      <c r="J220">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B221" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="C221"/>
       <c r="D221" s="31" t="s">
         <v>34</v>
       </c>
@@ -10371,15 +10077,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H221" s="30"/>
-      <c r="K221">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="222" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B222" s="52" t="s">
+      <c r="J221">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B222" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="C222"/>
       <c r="D222" s="31" t="s">
         <v>34</v>
       </c>
@@ -10390,15 +10095,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H222" s="32"/>
-      <c r="K222">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="223" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B223" s="52" t="s">
+      <c r="J222">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B223" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="C223"/>
       <c r="D223" s="31" t="s">
         <v>34</v>
       </c>
@@ -10409,15 +10113,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H223" s="30"/>
-      <c r="K223">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="224" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B224" s="52" t="s">
+      <c r="J223">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B224" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="C224"/>
       <c r="D224" s="31" t="s">
         <v>34</v>
       </c>
@@ -10428,15 +10131,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H224" s="32"/>
-      <c r="K224">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B225" s="52" t="s">
+      <c r="J224">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B225" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="C225"/>
       <c r="D225" s="31" t="s">
         <v>34</v>
       </c>
@@ -10447,15 +10149,14 @@
         <v>4.4520547945205479E-3</v>
       </c>
       <c r="H225" s="30"/>
-      <c r="K225">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B226" s="52" t="s">
+      <c r="J225">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B226" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C226"/>
       <c r="D226" s="31" t="s">
         <v>34</v>
       </c>
@@ -10466,15 +10167,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H226" s="32"/>
-      <c r="K226">
+      <c r="J226">
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B227" s="52" t="s">
+    <row r="227" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B227" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="C227"/>
       <c r="D227" s="31" t="s">
         <v>34</v>
       </c>
@@ -10485,15 +10185,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H227" s="30"/>
-      <c r="K227">
+      <c r="J227">
         <v>42</v>
       </c>
     </row>
-    <row r="228" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B228" s="52" t="s">
+    <row r="228" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B228" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="C228"/>
       <c r="D228" s="31" t="s">
         <v>34</v>
       </c>
@@ -10504,15 +10203,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H228" s="32"/>
-      <c r="K228">
+      <c r="J228">
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B229" s="52" t="s">
+    <row r="229" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B229" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="C229"/>
       <c r="D229" s="31" t="s">
         <v>34</v>
       </c>
@@ -10523,15 +10221,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H229" s="30"/>
-      <c r="K229">
+      <c r="J229">
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B230" s="52" t="s">
+    <row r="230" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B230" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="C230"/>
       <c r="D230" s="31" t="s">
         <v>34</v>
       </c>
@@ -10542,15 +10239,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H230" s="32"/>
-      <c r="K230">
+      <c r="J230">
         <v>42</v>
       </c>
     </row>
-    <row r="231" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B231" s="52" t="s">
+    <row r="231" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B231" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="C231"/>
       <c r="D231" s="31" t="s">
         <v>34</v>
       </c>
@@ -10561,15 +10257,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H231" s="30"/>
-      <c r="K231">
+      <c r="J231">
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B232" s="52" t="s">
+    <row r="232" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B232" s="51" t="s">
         <v>398</v>
       </c>
-      <c r="C232"/>
       <c r="D232" s="31" t="s">
         <v>34</v>
       </c>
@@ -10580,15 +10275,14 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H232" s="32"/>
-      <c r="K232">
+      <c r="J232">
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B233" s="52" t="s">
+    <row r="233" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B233" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="C233"/>
       <c r="D233" s="31" t="s">
         <v>34</v>
       </c>
@@ -10599,7 +10293,7 @@
         <v>4.7945205479452057E-3</v>
       </c>
       <c r="H233" s="33"/>
-      <c r="K233">
+      <c r="J233">
         <v>42</v>
       </c>
     </row>
@@ -10608,7 +10302,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10620,41 +10313,41 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="39"/>
-    <col min="2" max="2" width="10.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="39"/>
+    <col min="1" max="1" width="9.109375" style="38"/>
+    <col min="2" max="2" width="10.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="38"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="14" thickBot="1">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="2:4" ht="13.8" thickBot="1">
+      <c r="B4" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>1</v>
       </c>
     </row>
@@ -10664,6 +10357,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10672,7 +10371,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -10816,13 +10515,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10830,7 +10539,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38EE394D-E8DA-413E-B5EF-6DF7212C84CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10846,20 +10555,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>